--- a/Cases Onlinetrade.xlsx
+++ b/Cases Onlinetrade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Documents\GitHub\Rep_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AE891E-D035-436D-B0E9-47756D438B82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C337657-8A38-426A-885C-EC0B147BF63C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>№</t>
   </si>
@@ -370,12 +370,21 @@
   <si>
     <t>Страница обновилась. Появилось сообщение "Ссылка для подтверждения удаления личного кабинета была выслана на Ваш e-mail".</t>
   </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>пройден</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -412,8 +421,30 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,8 +463,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -513,11 +550,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -537,9 +607,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -573,6 +640,34 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -890,10 +985,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:G28"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -903,39 +998,44 @@
     <col min="5" max="5" width="81.7265625" customWidth="1"/>
     <col min="6" max="6" width="37.08984375" customWidth="1"/>
     <col min="7" max="7" width="39.81640625" customWidth="1"/>
+    <col min="8" max="8" width="35.54296875" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="H2" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="2:7" ht="101.5" x14ac:dyDescent="0.25">
+      <c r="G3" s="21"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -951,11 +1051,14 @@
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="101.5" x14ac:dyDescent="0.25">
+      <c r="H4" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -971,11 +1074,14 @@
       <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="101.5" x14ac:dyDescent="0.25">
+      <c r="H5" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -991,11 +1097,14 @@
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="116" x14ac:dyDescent="0.25">
+      <c r="H6" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="116" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -1011,11 +1120,14 @@
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="116" x14ac:dyDescent="0.25">
+      <c r="H7" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="116" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -1031,11 +1143,14 @@
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="116" x14ac:dyDescent="0.25">
+      <c r="H8" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="116" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -1051,11 +1166,14 @@
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="116" x14ac:dyDescent="0.25">
+      <c r="H9" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="116" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -1071,11 +1189,14 @@
       <c r="F10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="159.5" x14ac:dyDescent="0.25">
+      <c r="H10" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="159.5" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -1091,11 +1212,12 @@
       <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="72.5" x14ac:dyDescent="0.25">
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="2:8" ht="72.5" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -1111,11 +1233,12 @@
       <c r="F12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="72.5" x14ac:dyDescent="0.25">
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="2:8" ht="72.5" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -1131,11 +1254,12 @@
       <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="116" x14ac:dyDescent="0.25">
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="2:8" ht="116" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -1151,11 +1275,12 @@
       <c r="F14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="116" x14ac:dyDescent="0.25">
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="2:8" ht="116" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -1171,11 +1296,12 @@
       <c r="F15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="58" x14ac:dyDescent="0.25">
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="2:8" ht="58" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -1191,11 +1317,12 @@
       <c r="F16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="58" x14ac:dyDescent="0.25">
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="2:8" ht="58" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -1211,18 +1338,19 @@
       <c r="F17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="72.5" x14ac:dyDescent="0.25">
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="2:8" ht="72.5" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1231,11 +1359,12 @@
       <c r="F18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="24">
         <v>111111</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="58" x14ac:dyDescent="0.25">
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="2:8" ht="58" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>16</v>
       </c>
@@ -1251,11 +1380,12 @@
       <c r="F19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="87" x14ac:dyDescent="0.25">
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="2:8" ht="87" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>17</v>
       </c>
@@ -1271,9 +1401,10 @@
       <c r="F20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="2:7" ht="101.5" x14ac:dyDescent="0.25">
+      <c r="G20" s="22"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="2:8" ht="101.5" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>18</v>
       </c>
@@ -1289,11 +1420,12 @@
       <c r="F21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="72.5" x14ac:dyDescent="0.25">
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="2:8" ht="72.5" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>19</v>
       </c>
@@ -1309,11 +1441,12 @@
       <c r="F22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="22" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="58" x14ac:dyDescent="0.25">
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="2:8" ht="58" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>20</v>
       </c>
@@ -1329,50 +1462,56 @@
       <c r="F23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:7" ht="18.5" x14ac:dyDescent="0.25">
+      <c r="G23" s="22"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="2:8" ht="18.5" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="2:7" ht="18.5" x14ac:dyDescent="0.25">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="2:8" ht="18.5" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="2:7" ht="18.5" x14ac:dyDescent="0.25">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="2:8" ht="18.5" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="2:7" ht="18.5" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="2:8" ht="18.5" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="2:7" ht="18.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="2:8" ht="18.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -1383,5 +1522,6 @@
     <hyperlink ref="G16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>